--- a/output/part1/grs_size_op_inv.xlsx
+++ b/output/part1/grs_size_op_inv.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11.72007858111709</v>
+        <v>16.44017404108616</v>
       </c>
       <c r="C2" t="n">
-        <v>1.332267629550188e-15</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1311518287151455</v>
+        <v>0.01533053832641091</v>
       </c>
       <c r="E2" t="n">
-        <v>55.99885300115616</v>
+        <v>0.9287579776373168</v>
       </c>
       <c r="F2" t="n">
-        <v>3135.871537445096</v>
+        <v>0.8625913810249587</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.21913215673258</v>
+        <v>16.46040920501808</v>
       </c>
       <c r="C3" t="n">
-        <v>5.995204332975845e-15</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="D3" t="n">
-        <v>0.127482767393031</v>
+        <v>0.01530198511979786</v>
       </c>
       <c r="E3" t="n">
-        <v>54.43224712427147</v>
+        <v>0.9270281611191774</v>
       </c>
       <c r="F3" t="n">
-        <v>2962.86952699776</v>
+        <v>0.8593812115080036</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.59920722452756</v>
+        <v>17.32862426996585</v>
       </c>
       <c r="C4" t="n">
-        <v>1.887379141862766e-15</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1196946181289307</v>
+        <v>0.01299564749400441</v>
       </c>
       <c r="E4" t="n">
-        <v>51.10688422187034</v>
+        <v>0.7873051179047998</v>
       </c>
       <c r="F4" t="n">
-        <v>2611.913614867659</v>
+        <v>0.6198493486790908</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11.47813796301969</v>
+        <v>17.66181136376285</v>
       </c>
       <c r="C5" t="n">
-        <v>2.664535259100376e-15</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1194617793195445</v>
+        <v>0.0134736126112655</v>
       </c>
       <c r="E5" t="n">
-        <v>51.00746733697044</v>
+        <v>0.8162613036718603</v>
       </c>
       <c r="F5" t="n">
-        <v>2601.761724132106</v>
+        <v>0.6662825158720849</v>
       </c>
     </row>
     <row r="6">
@@ -555,19 +555,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.16581346043433</v>
+        <v>17.32696186820391</v>
       </c>
       <c r="C6" t="n">
-        <v>6.994405055138486e-15</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="D6" t="n">
-        <v>0.116862588090424</v>
+        <v>0.01297666684029057</v>
       </c>
       <c r="E6" t="n">
-        <v>49.89767169792111</v>
+        <v>0.7861552278499201</v>
       </c>
       <c r="F6" t="n">
-        <v>2489.777640873517</v>
+        <v>0.6180400422757597</v>
       </c>
     </row>
   </sheetData>
